--- a/AAII_Financials/Quarterly/IGMS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IGMS_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="92">
   <si>
     <t>IGMS</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,54 +665,61 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -740,8 +747,14 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -769,8 +782,14 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -798,8 +817,14 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -811,37 +836,45 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E12" s="3">
+        <v>21000</v>
+      </c>
+      <c r="F12" s="3">
         <v>8300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>14200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>13000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>5200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>6000</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -869,8 +902,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -898,8 +937,14 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -927,8 +972,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -937,37 +988,45 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>26600</v>
+      </c>
+      <c r="F17" s="3">
         <v>10700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>17900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>15600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>6500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>7200</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -975,28 +1034,34 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="G18" s="3">
         <v>-17900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-15600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-6500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-7200</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1008,8 +1073,10 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1017,28 +1084,34 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F20" s="3">
+        <v>500</v>
+      </c>
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1046,28 +1119,34 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="G21" s="3">
         <v>-17900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-15400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-6400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-7000</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1095,37 +1174,49 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-10200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-18100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-15600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-6500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-7100</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1153,8 +1244,14 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1182,66 +1279,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-10200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-18100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-15600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-6500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-7100</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-10200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-18100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-15600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-6500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-7100</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1269,8 +1384,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1298,8 +1419,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1327,8 +1454,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1356,8 +1489,14 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1365,57 +1504,69 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-10200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-18100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-15600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-6500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-7100</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1443,71 +1594,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-10200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-18100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-15600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-6500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-7100</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1519,8 +1688,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1532,23 +1703,25 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>48100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>35900</v>
+      </c>
+      <c r="F41" s="3">
         <v>193700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>42700</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1561,20 +1734,26 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>158700</v>
+      </c>
+      <c r="E42" s="3">
+        <v>188700</v>
+      </c>
+      <c r="F42" s="3">
         <v>48400</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1590,8 +1769,14 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1601,11 +1786,11 @@
       <c r="E43" s="3">
         <v>0</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1619,8 +1804,14 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1648,23 +1839,29 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F45" s="3">
         <v>6000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1200</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1677,23 +1874,29 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>212500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>231100</v>
+      </c>
+      <c r="F46" s="3">
         <v>248100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>43900</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1706,20 +1909,26 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E47" s="3">
+        <v>12000</v>
+      </c>
+      <c r="F47" s="3">
         <v>9300</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1735,23 +1944,29 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>18000</v>
+      </c>
+      <c r="F48" s="3">
         <v>12500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2400</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1764,8 +1979,14 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1793,8 +2014,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1822,8 +2049,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1851,23 +2084,29 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E52" s="3">
+        <v>300</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
         <v>2200</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1880,8 +2119,14 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1909,23 +2154,29 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>243200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>261400</v>
+      </c>
+      <c r="F54" s="3">
         <v>269900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>48500</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1938,8 +2189,14 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1951,8 +2208,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1964,23 +2223,25 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F57" s="3">
         <v>2800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2100</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1993,8 +2254,14 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2002,14 +2269,14 @@
         <v>3</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3">
         <v>300</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2022,23 +2289,29 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F59" s="3">
         <v>3600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>4100</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2051,23 +2324,29 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F60" s="3">
         <v>6400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>6500</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2080,8 +2359,14 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2109,23 +2394,29 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>12200</v>
+      </c>
+      <c r="F62" s="3">
         <v>8800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>200</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2138,8 +2429,14 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2167,8 +2464,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2196,8 +2499,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2225,23 +2534,29 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>21100</v>
+      </c>
+      <c r="F66" s="3">
         <v>15200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>6700</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2254,8 +2569,14 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2267,8 +2588,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2296,8 +2619,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2325,8 +2654,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2334,14 +2669,14 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
         <v>122800</v>
       </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
       <c r="H70" s="3">
         <v>0</v>
       </c>
@@ -2354,8 +2689,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2383,23 +2724,29 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-124800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-107200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-92400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-82200</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2412,8 +2759,14 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2441,8 +2794,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2470,8 +2829,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2499,23 +2864,29 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>224000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>240200</v>
+      </c>
+      <c r="F76" s="3">
         <v>254600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-81000</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2528,8 +2899,14 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2557,71 +2934,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-10200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-18100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-15600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-6500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-7100</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2633,8 +3028,10 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2648,22 +3045,28 @@
         <v>200</v>
       </c>
       <c r="G83" s="3">
+        <v>300</v>
+      </c>
+      <c r="H83" s="3">
+        <v>200</v>
+      </c>
+      <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2691,8 +3094,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2720,8 +3129,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2749,8 +3164,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2778,8 +3199,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2807,37 +3234,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-15400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-17700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-12100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-5900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-8000</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2849,37 +3288,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-1100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2907,8 +3354,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2936,37 +3389,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-202100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-58400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-1100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2978,8 +3443,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3007,8 +3474,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3036,8 +3509,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3065,8 +3544,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3094,37 +3579,49 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>222700</v>
+      </c>
+      <c r="F100" s="3">
         <v>224700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>59600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>13500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>8200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>8900</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3152,33 +3649,45 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="F102" s="3">
         <v>150900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>40800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>2200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>600</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IGMS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IGMS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="92">
   <si>
     <t>IGMS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,61 +665,66 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
-        <v>43373</v>
-      </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -753,8 +758,11 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -788,8 +796,11 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -823,8 +834,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,43 +852,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E12" s="3">
         <v>14600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>21000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>8300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>14200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
+        <v>5900</v>
+      </c>
+      <c r="J12" s="3">
         <v>13000</v>
       </c>
-      <c r="I12" s="3">
-        <v>5200</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>6000</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -908,8 +926,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -943,8 +964,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -978,8 +1002,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -990,43 +1017,47 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E17" s="3">
         <v>18600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>26600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>17900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
+        <v>7400</v>
+      </c>
+      <c r="J17" s="3">
         <v>15600</v>
       </c>
-      <c r="I17" s="3">
-        <v>6500</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7200</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1034,34 +1065,37 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-26600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-10700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-17900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="J18" s="3">
         <v>-15600</v>
       </c>
-      <c r="I18" s="3">
-        <v>-6500</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-7200</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1075,8 +1109,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1084,34 +1119,37 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>900</v>
+      </c>
+      <c r="F20" s="3">
         <v>1600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1119,34 +1157,37 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-24600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-10000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-17900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="J21" s="3">
         <v>-15400</v>
       </c>
-      <c r="I21" s="3">
-        <v>-6400</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-7000</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1180,43 +1221,49 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-17600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-25000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-10200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-18100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="J23" s="3">
         <v>-15600</v>
       </c>
-      <c r="I23" s="3">
-        <v>-6500</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-7100</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1250,8 +1297,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1285,78 +1335,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-17600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-25000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-10200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-18100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="J26" s="3">
         <v>-15600</v>
       </c>
-      <c r="I26" s="3">
-        <v>-6500</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-7100</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-17600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-25000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-10200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-18100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="J27" s="3">
         <v>-15600</v>
       </c>
-      <c r="I27" s="3">
-        <v>-6500</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7100</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1390,8 +1449,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1425,8 +1487,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1460,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1495,8 +1563,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1504,69 +1575,75 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-17600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-25000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-10200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-18100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="J33" s="3">
         <v>-15600</v>
       </c>
-      <c r="I33" s="3">
-        <v>-6500</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7100</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1600,83 +1677,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-17600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-25000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-10200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-18100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="J35" s="3">
         <v>-15600</v>
       </c>
-      <c r="I35" s="3">
-        <v>-6500</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7100</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
-        <v>43373</v>
-      </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1690,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1705,26 +1792,27 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E41" s="3">
         <v>48100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>35900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>193700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>42700</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1740,23 +1828,26 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>166300</v>
+      </c>
+      <c r="E42" s="3">
         <v>158700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>188700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>48400</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1775,8 +1866,11 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1792,8 +1886,8 @@
       <c r="G43" s="3">
         <v>0</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+      <c r="H43" s="3">
+        <v>0</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1810,8 +1904,11 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1845,26 +1942,29 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E45" s="3">
         <v>5700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1200</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1880,26 +1980,29 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>201200</v>
+      </c>
+      <c r="E46" s="3">
         <v>212500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>231100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>248100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>43900</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1915,23 +2018,26 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E47" s="3">
         <v>12200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>12000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>9300</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1950,26 +2056,29 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E48" s="3">
         <v>18200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>18000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>12500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2400</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1985,8 +2094,11 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2020,8 +2132,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2055,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2090,8 +2208,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2102,14 +2223,14 @@
         <v>300</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
         <v>2200</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,8 +2246,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2160,26 +2284,29 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>229100</v>
+      </c>
+      <c r="E54" s="3">
         <v>243200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>261400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>269900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>48500</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2195,8 +2322,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2210,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2225,26 +2356,27 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E57" s="3">
         <v>2000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2100</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2260,26 +2392,29 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3">
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3">
         <v>300</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2295,26 +2430,29 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E59" s="3">
         <v>5600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4100</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2330,26 +2468,29 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E60" s="3">
         <v>7500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6500</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2365,8 +2506,11 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2400,26 +2544,29 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E62" s="3">
         <v>11600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>12200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>8800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>200</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2435,8 +2582,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2470,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2505,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2540,26 +2696,29 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>22100</v>
+      </c>
+      <c r="E66" s="3">
         <v>19100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>21100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>15200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6700</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2575,8 +2734,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2590,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2625,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2660,8 +2826,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2675,11 +2844,11 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
         <v>122800</v>
       </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
@@ -2695,8 +2864,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2730,26 +2902,29 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-143700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-124800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-107200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-92400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-82200</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2765,8 +2940,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2800,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2835,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2870,26 +3054,29 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>207000</v>
+      </c>
+      <c r="E76" s="3">
         <v>224000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>240200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>254600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-81000</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2905,8 +3092,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2940,83 +3130,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
-        <v>43373</v>
-      </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-17600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-25000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-10200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-18100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="J81" s="3">
         <v>-15600</v>
       </c>
-      <c r="I81" s="3">
-        <v>-6500</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7100</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3030,8 +3229,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3039,34 +3239,37 @@
         <v>200</v>
       </c>
       <c r="E83" s="3">
+        <v>200</v>
+      </c>
+      <c r="F83" s="3">
         <v>300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>300</v>
-      </c>
-      <c r="H83" s="3">
-        <v>200</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
       </c>
       <c r="J83" s="3">
+        <v>200</v>
+      </c>
+      <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3100,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3135,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3170,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3205,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3240,43 +3455,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-16400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-27400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-15400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-17700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="J89" s="3">
         <v>-12100</v>
       </c>
-      <c r="I89" s="3">
-        <v>-5900</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-8000</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3290,43 +3511,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J91" s="3">
         <v>-500</v>
       </c>
-      <c r="I91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3360,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3395,43 +3623,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E94" s="3">
         <v>28500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-202100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-58400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J94" s="3">
         <v>-500</v>
       </c>
-      <c r="I94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3445,8 +3679,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3480,8 +3715,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3515,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3550,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3585,43 +3829,49 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>222700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>224700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>59600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
+        <v>10000</v>
+      </c>
+      <c r="J100" s="3">
         <v>13500</v>
       </c>
-      <c r="I100" s="3">
-        <v>8200</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>8900</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3655,39 +3905,45 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="E102" s="3">
         <v>12200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-6900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>150900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>40800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J102" s="3">
         <v>900</v>
       </c>
-      <c r="I102" s="3">
-        <v>2200</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>600</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IGMS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IGMS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="92">
   <si>
     <t>IGMS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,66 +665,70 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -761,8 +765,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -799,8 +806,11 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -837,8 +847,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,46 +866,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E12" s="3">
         <v>15000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>14600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>21000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>8300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>14200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>5900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>13000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>6000</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,8 +946,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -967,8 +987,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,46 +1044,50 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E17" s="3">
         <v>19400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>18600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>26600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>17900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>15600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7200</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1065,37 +1095,40 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-18600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-26600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-10700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-17900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-7400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-15600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-7200</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,8 +1143,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1119,37 +1153,40 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>600</v>
+      </c>
+      <c r="F20" s="3">
         <v>900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1157,37 +1194,40 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-17400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-24600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-10000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-17900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-7400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-15400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-7000</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1224,46 +1264,52 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-18800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-17600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-25000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-10200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-18100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-15600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-7100</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1300,8 +1346,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-18800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-17600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-25000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-10200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-18100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-7500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-15600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7100</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-18800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-17600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-25000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-10200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-18100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-7500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-15600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7100</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,8 +1633,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1575,75 +1645,81 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F32" s="3">
         <v>-900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-18800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-17600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-25000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-10200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-18100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-7500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-15600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7100</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-18800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-17600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-25000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-10200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-18100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-7500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-15600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7100</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,29 +1879,30 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>27300</v>
+      </c>
+      <c r="E41" s="3">
         <v>31800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>48100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>35900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>193700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>42700</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1831,26 +1918,29 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>153000</v>
+      </c>
+      <c r="E42" s="3">
         <v>166300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>158700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>188700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>48400</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1869,8 +1959,11 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1889,8 +1982,8 @@
       <c r="H43" s="3">
         <v>0</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+      <c r="I43" s="3">
+        <v>0</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1907,8 +2000,11 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1945,29 +2041,32 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E45" s="3">
         <v>3100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1200</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1983,29 +2082,32 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>184700</v>
+      </c>
+      <c r="E46" s="3">
         <v>201200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>212500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>231100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>248100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>43900</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2021,26 +2123,29 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
         <v>5000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>12200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>12000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>9300</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2059,29 +2164,32 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>26600</v>
+      </c>
+      <c r="E48" s="3">
         <v>22600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>18200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>18000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>12500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2400</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2097,8 +2205,11 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2135,8 +2246,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,13 +2328,16 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E52" s="3">
         <v>300</v>
@@ -2226,14 +2346,14 @@
         <v>300</v>
       </c>
       <c r="G52" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
         <v>2200</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2249,8 +2369,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,29 +2410,32 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>211700</v>
+      </c>
+      <c r="E54" s="3">
         <v>229100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>243200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>261400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>269900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>48500</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2325,8 +2451,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,29 +2487,30 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E57" s="3">
         <v>4300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2100</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2395,8 +2526,11 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2406,18 +2540,18 @@
       <c r="E58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>300</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2433,29 +2567,32 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E59" s="3">
         <v>6900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4100</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2471,29 +2608,32 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E60" s="3">
         <v>11200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6500</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2509,8 +2649,11 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2547,29 +2690,32 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E62" s="3">
         <v>10900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>11600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>12200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>8800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>200</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2585,8 +2731,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,29 +2854,32 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E66" s="3">
         <v>22100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>19100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>21100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>15200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6700</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2737,8 +2895,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2847,11 +3015,11 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
         <v>122800</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,29 +3076,32 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-163900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-143700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-124800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-107200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-92400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-82200</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2943,8 +3117,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,29 +3240,32 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>188200</v>
+      </c>
+      <c r="E76" s="3">
         <v>207000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>224000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>240200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>254600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-81000</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3095,8 +3281,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-18800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-17600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-25000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-10200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-18100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-7500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-15600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7100</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,8 +3428,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3242,34 +3441,37 @@
         <v>200</v>
       </c>
       <c r="F83" s="3">
+        <v>200</v>
+      </c>
+      <c r="G83" s="3">
         <v>300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>100</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,46 +3672,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-13100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-16400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-27400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-15400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-17700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-8300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-12100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-8000</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,46 +3732,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,46 +3853,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>28500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-202100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-58400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,46 +4075,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-200</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>222700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>224700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>59600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>10000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>13500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>8900</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3908,42 +4157,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-16300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>12200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-6900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>150900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>40800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>600</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IGMS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IGMS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="92">
   <si>
     <t>IGMS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,70 +665,77 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -768,8 +775,14 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -809,8 +822,14 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -850,8 +869,14 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,49 +892,57 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E12" s="3">
+        <v>19600</v>
+      </c>
+      <c r="F12" s="3">
         <v>15800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>15000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>14600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>21000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>8300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>14200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>5900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>13000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>6000</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,8 +982,14 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -990,8 +1029,14 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1076,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,49 +1096,57 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>24700</v>
+      </c>
+      <c r="F17" s="3">
         <v>20600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>19400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>18600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>26600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>10700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>17900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>7400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>15600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>7200</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1095,40 +1154,46 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-24700</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="G18" s="3">
         <v>-19400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-18600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-26600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-10700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-17900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-7400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-15600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-7200</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,8 +1209,10 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1153,40 +1220,46 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>300</v>
+      </c>
+      <c r="G20" s="3">
         <v>600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>1600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1194,40 +1267,46 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="G21" s="3">
         <v>-18600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-17400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-24600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-10000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-17900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-7400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-15400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-7000</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1267,49 +1346,61 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-31600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-20300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-18800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-17600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-25000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-10200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-18100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-7500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-15600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-7100</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1349,8 +1440,14 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1487,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-31600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-20300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-18800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-17600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-25000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-10200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-18100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-7500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-15600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-7100</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-31600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-20300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-18800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-17600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-25000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-10200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-18100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-7500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-15600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-7100</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1628,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1675,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1722,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,8 +1769,14 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1645,81 +1784,93 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G32" s="3">
         <v>-600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-1600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-31600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-20300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-18800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-17600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-25000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-10200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-18100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-7500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-15600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-7100</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1910,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-31600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-20300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-18800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-17600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-25000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-10200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-18100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-7500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-15600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-7100</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +2032,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,35 +2051,37 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>252400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>241100</v>
+      </c>
+      <c r="F41" s="3">
         <v>27300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>31800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>48100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>35900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>193700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>42700</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1921,32 +2094,38 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>79300</v>
+      </c>
+      <c r="E42" s="3">
+        <v>125200</v>
+      </c>
+      <c r="F42" s="3">
         <v>153000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>166300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>158700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>188700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>48400</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1962,16 +2141,22 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -1985,11 +2170,11 @@
       <c r="I43" s="3">
         <v>0</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
@@ -2003,8 +2188,14 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,35 +2235,41 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F45" s="3">
         <v>4400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>3100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>5700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>6400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>6000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1200</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2085,35 +2282,41 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>341200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>373300</v>
+      </c>
+      <c r="F46" s="3">
         <v>184700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>201200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>212500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>231100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>248100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>43900</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,32 +2329,38 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
         <v>5000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>12200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>12000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>9300</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2167,35 +2376,41 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>38400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>34800</v>
+      </c>
+      <c r="F48" s="3">
         <v>26600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>22600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>18200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>18000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>12500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2400</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2208,8 +2423,14 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2249,8 +2470,14 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2517,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,35 +2564,41 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>900</v>
+      </c>
+      <c r="E52" s="3">
         <v>500</v>
       </c>
-      <c r="E52" s="3">
-        <v>300</v>
-      </c>
       <c r="F52" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G52" s="3">
         <v>300</v>
       </c>
       <c r="H52" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I52" s="3">
+        <v>300</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
         <v>2200</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2372,8 +2611,14 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,35 +2658,41 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>380500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>408600</v>
+      </c>
+      <c r="F54" s="3">
         <v>211700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>229100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>243200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>261400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>269900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>48500</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2454,8 +2705,14 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2728,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,35 +2747,37 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F57" s="3">
         <v>3200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>4300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>3100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2100</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2529,8 +2790,14 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2543,21 +2810,21 @@
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>300</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2570,35 +2837,41 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>9300</v>
+      </c>
+      <c r="F59" s="3">
         <v>10100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>6900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>5600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>5800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>3600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>4100</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2611,35 +2884,41 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>17200</v>
+      </c>
+      <c r="F60" s="3">
         <v>13300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>11200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>7500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>8900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>6400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>6500</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2652,8 +2931,14 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2693,35 +2978,41 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F62" s="3">
         <v>10300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>10900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>11600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>12200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>8800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>200</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2734,8 +3025,14 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +3072,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +3119,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,35 +3166,41 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>26800</v>
+      </c>
+      <c r="F66" s="3">
         <v>23500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>22100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>19100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>21100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>15200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>6700</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2898,8 +3213,14 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3236,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3279,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3326,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3018,14 +3353,14 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>122800</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3038,8 +3373,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,35 +3420,41 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-220200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-188600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-163900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-143700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-124800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-107200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-92400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-82200</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3120,8 +3467,14 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3514,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3561,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,35 +3608,41 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>355600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>381800</v>
+      </c>
+      <c r="F76" s="3">
         <v>188200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>207000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>224000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>240200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>254600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-81000</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3284,8 +3655,14 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3702,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-31600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-20300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-18800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-17600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-25000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-10200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-18100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-7500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-15600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-7100</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,22 +3824,24 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F83" s="3">
         <v>200</v>
       </c>
       <c r="G83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H83" s="3">
         <v>200</v>
@@ -3453,25 +3850,31 @@
         <v>300</v>
       </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L83" s="3">
         <v>100</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
+      <c r="M83" s="3">
+        <v>200</v>
+      </c>
+      <c r="N83" s="3">
+        <v>100</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3914,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3961,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +4008,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +4055,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +4102,61 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-28300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-22800</v>
+      </c>
+      <c r="F89" s="3">
         <v>-15100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-13100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-16400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-27400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-15400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-17700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-8300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-12100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-8000</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,49 +4172,57 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-6600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-2500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-1700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-1200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-1100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4262,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,49 +4309,61 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>39600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>20700</v>
+      </c>
+      <c r="F94" s="3">
         <v>11500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-3000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>28500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-202100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-58400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-1100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4379,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4422,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4469,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4516,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,49 +4563,61 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>215900</v>
+      </c>
+      <c r="F100" s="3">
         <v>-900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>222700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>224700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>59600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>10000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>13500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>8900</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,45 +4657,57 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>213800</v>
+      </c>
+      <c r="F102" s="3">
         <v>-4500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-16300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>12200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-6900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>150900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>40800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>600</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IGMS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IGMS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="92">
   <si>
     <t>IGMS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,81 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -781,8 +785,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -828,8 +835,11 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -875,8 +885,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,55 +907,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>30100</v>
+      </c>
+      <c r="E12" s="3">
         <v>23600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>19600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>15800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>15000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>14600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>21000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>8300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>14200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>5900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>13000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>6000</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1035,8 +1055,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,55 +1124,59 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>38700</v>
+      </c>
+      <c r="E17" s="3">
         <v>31700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>24700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>20600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>19400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>18600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>26600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>10700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>17900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>15600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7200</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1154,46 +1184,49 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-24700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-20600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-19400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-18600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-26600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-10700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-17900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-7400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-15600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-7200</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1244,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1223,43 +1257,46 @@
         <v>100</v>
       </c>
       <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1267,46 +1304,49 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-24300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-20000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-18600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-17400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-24600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-10000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-17900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-7400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-15400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-7000</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1352,55 +1392,61 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-38700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-31600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-24600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-20300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-18800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-17600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-25000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-10200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-18100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-7500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-15600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-7100</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1492,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-38700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-31600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-24600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-20300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-18800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-17600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-25000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-10200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-18100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-7500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-15600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-7100</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-38700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-31600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-24600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-20300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-18800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-17600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-25000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-10200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-18100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-7500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-15600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-7100</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1842,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1787,90 +1857,96 @@
         <v>-100</v>
       </c>
       <c r="F32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-38700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-31600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-24600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-20300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-18800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-17600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-25000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-10200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-18100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-7500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-15600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-7100</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-38700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-31600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-24600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-20300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-18800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-17600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-25000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-10200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-18100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-7500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-15600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-7100</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,38 +2139,39 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>246000</v>
+      </c>
+      <c r="E41" s="3">
         <v>252400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>241100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>27300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>31800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>48100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>35900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>193700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>42700</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2100,35 +2187,38 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>35400</v>
+      </c>
+      <c r="E42" s="3">
         <v>79300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>125200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>153000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>166300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>158700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>188700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>48400</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2147,8 +2237,11 @@
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2158,8 +2251,8 @@
       <c r="E43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -2176,8 +2269,8 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
+      <c r="L43" s="3">
+        <v>0</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
@@ -2194,8 +2287,11 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,38 +2337,41 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E45" s="3">
         <v>9500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1200</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2288,38 +2387,41 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>290200</v>
+      </c>
+      <c r="E46" s="3">
         <v>341200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>373300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>184700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>201200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>212500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>231100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>248100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>43900</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2335,35 +2437,38 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
+      <c r="D47" s="3">
+        <v>20400</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
         <v>5000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>12200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>12000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>9300</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2382,38 +2487,41 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>39300</v>
+      </c>
+      <c r="E48" s="3">
         <v>38400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>34800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>26600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>22600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>18200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>18000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>12500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2400</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2429,8 +2537,11 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,22 +2687,25 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>800</v>
+      </c>
+      <c r="E52" s="3">
         <v>900</v>
-      </c>
-      <c r="E52" s="3">
-        <v>500</v>
       </c>
       <c r="F52" s="3">
         <v>500</v>
       </c>
       <c r="G52" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H52" s="3">
         <v>300</v>
@@ -2594,14 +2714,14 @@
         <v>300</v>
       </c>
       <c r="J52" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
         <v>2200</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2617,8 +2737,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,38 +2787,41 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>350700</v>
+      </c>
+      <c r="E54" s="3">
         <v>380500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>408600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>211700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>229100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>243200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>261400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>269900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>48500</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2711,8 +2837,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,38 +2879,39 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E57" s="3">
         <v>5700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2100</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2796,25 +2927,28 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -2823,11 +2957,11 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>300</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2843,38 +2977,41 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E59" s="3">
         <v>9200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>10100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4100</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2890,38 +3027,41 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E60" s="3">
         <v>14800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>17200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>13300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>11200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6500</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2937,8 +3077,11 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2984,38 +3127,41 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E62" s="3">
         <v>10000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>9600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>10300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>10900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>11600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>12200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>8800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>200</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3031,8 +3177,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,38 +3327,41 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>28200</v>
+      </c>
+      <c r="E66" s="3">
         <v>24900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>26800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>23500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>22100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>19100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>21100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>15200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6700</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3219,8 +3377,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3359,11 +3527,11 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>122800</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,38 +3597,41 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-258900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-220200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-188600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-163900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-143700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-124800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-107200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-92400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-82200</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3473,8 +3647,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,38 +3797,41 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>322500</v>
+      </c>
+      <c r="E76" s="3">
         <v>355600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>381800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>188200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>207000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>224000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>240200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>254600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-81000</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3661,8 +3847,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-38700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-31600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-24600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-20300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-18800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-17600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-25000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-10200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-18100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-7500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-15600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-7100</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,19 +4024,20 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E83" s="3">
         <v>700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>300</v>
-      </c>
-      <c r="F83" s="3">
-        <v>200</v>
       </c>
       <c r="G83" s="3">
         <v>200</v>
@@ -3847,34 +4046,37 @@
         <v>200</v>
       </c>
       <c r="I83" s="3">
+        <v>200</v>
+      </c>
+      <c r="J83" s="3">
         <v>300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>100</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-26400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-28300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-22800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-15100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-13100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-16400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-27400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-15400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-17700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-8300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-12100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-8000</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4394,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-6700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-6600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E94" s="3">
         <v>39600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>20700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>11500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>28500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-202100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-58400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-300</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,55 +4812,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>215900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>222700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>224700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>59600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>10000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>13500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>8900</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,51 +4912,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E102" s="3">
         <v>11300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>213800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-16300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>12200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-6900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>150900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>40800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>600</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IGMS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IGMS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="92">
   <si>
     <t>IGMS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -788,8 +792,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>34200</v>
+      </c>
+      <c r="E12" s="3">
         <v>30100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>23600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>19600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>15800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>15000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>14600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>21000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>8300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>14200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>5900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>13000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>6000</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,58 +1151,62 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>44200</v>
+      </c>
+      <c r="E17" s="3">
         <v>38700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>31700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>24700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>20600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>19400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>18600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>26600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>17900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>15600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7200</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1184,49 +1214,52 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-38700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-31700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-24700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-20600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-19400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-18600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-26600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-10700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-17900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-7400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-15600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-7200</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1254,49 +1288,52 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
       </c>
       <c r="G20" s="3">
+        <v>100</v>
+      </c>
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1304,49 +1341,52 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-37300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-31000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-24300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-20000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-18600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-17400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-24600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-10000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-17900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-7400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-15400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-7000</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,58 +1435,64 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-44200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-38700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-31600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-24600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-20300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-18800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-17600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-25000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-10200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-18100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-7500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-15600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-7100</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-44200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-38700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-31600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-24600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-20300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-18800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-17600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-25000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-10200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-18100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-7500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-15600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-7100</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-44200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-38700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-31600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-24600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-20300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-18800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-17600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-25000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-10200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-18100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-7500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-15600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-7100</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1854,99 +1924,105 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
       </c>
       <c r="G32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-44200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-38700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-31600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-24600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-20300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-18800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-17600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-25000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-10200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-18100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-7500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-15600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-7100</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-44200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-38700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-31600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-24600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-20300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-18800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-17600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-25000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-10200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-18100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-7500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-15600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-7100</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,41 +2226,42 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>165600</v>
+      </c>
+      <c r="E41" s="3">
         <v>246000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>252400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>241100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>27300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>31800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>48100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>35900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>193700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>42700</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2190,38 +2277,41 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>93900</v>
+      </c>
+      <c r="E42" s="3">
         <v>35400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>79300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>125200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>153000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>166300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>158700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>188700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>48400</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2240,8 +2330,11 @@
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2254,8 +2347,8 @@
       <c r="F43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -2272,8 +2365,8 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
+      <c r="M43" s="3">
+        <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,41 +2436,44 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E45" s="3">
         <v>8700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>9500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1200</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2390,41 +2489,44 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>268400</v>
+      </c>
+      <c r="E46" s="3">
         <v>290200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>341200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>373300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>184700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>201200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>212500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>231100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>248100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>43900</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2440,38 +2542,41 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E47" s="3">
         <v>20400</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
         <v>5000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>12200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>12000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>9300</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2490,41 +2595,44 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>56800</v>
+      </c>
+      <c r="E48" s="3">
         <v>39300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>38400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>34800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>26600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>22600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>18200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>18000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2400</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,25 +2807,28 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>900</v>
+      </c>
+      <c r="E52" s="3">
         <v>800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>900</v>
-      </c>
-      <c r="F52" s="3">
-        <v>500</v>
       </c>
       <c r="G52" s="3">
         <v>500</v>
       </c>
       <c r="H52" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="I52" s="3">
         <v>300</v>
@@ -2717,14 +2837,14 @@
         <v>300</v>
       </c>
       <c r="K52" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
         <v>2200</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,41 +2913,44 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>332200</v>
+      </c>
+      <c r="E54" s="3">
         <v>350700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>380500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>408600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>211700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>229100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>243200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>261400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>269900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>48500</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2840,8 +2966,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,41 +3010,42 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E57" s="3">
         <v>4900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2100</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2930,8 +3061,11 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2960,11 +3094,11 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>300</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2980,41 +3114,44 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E59" s="3">
         <v>14200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>10100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4100</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3030,41 +3167,44 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E60" s="3">
         <v>19100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>14800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>17200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>13300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>11200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>8900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6500</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3080,8 +3220,11 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,41 +3273,44 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>26200</v>
+      </c>
+      <c r="E62" s="3">
         <v>9100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>10000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>9600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>10300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>10900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>11600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>12200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>200</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,41 +3485,44 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>46700</v>
+      </c>
+      <c r="E66" s="3">
         <v>28200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>24900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>26800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>23500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>22100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>19100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>21100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6700</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3380,8 +3538,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3530,11 +3698,11 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>122800</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,41 +3771,44 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-303100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-258900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-220200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-188600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-163900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-143700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-124800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-107200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-92400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-82200</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3650,8 +3824,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,41 +3983,44 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>285600</v>
+      </c>
+      <c r="E76" s="3">
         <v>322500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>355600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>381800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>188200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>207000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>224000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>240200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>254600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-81000</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3850,8 +4036,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-44200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-38700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-31600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-24600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-20300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-18800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-17600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-25000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-10200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-18100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-7500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-15600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-7100</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,22 +4223,23 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E83" s="3">
         <v>1400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>300</v>
-      </c>
-      <c r="G83" s="3">
-        <v>200</v>
       </c>
       <c r="H83" s="3">
         <v>200</v>
@@ -4049,34 +4248,37 @@
         <v>200</v>
       </c>
       <c r="J83" s="3">
+        <v>200</v>
+      </c>
+      <c r="K83" s="3">
         <v>300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>100</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-34800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-26400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-28300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-22800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-15100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-13100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-16400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-27400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-15400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-17700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-8300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-12100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-8000</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-6100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-6700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-6600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-300</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-46700</v>
+      </c>
+      <c r="E94" s="3">
         <v>20100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>39600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>20700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>11500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>28500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-202100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-58400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-300</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>215900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-200</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>222700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>224700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>59600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>10000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>13500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>8900</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-80400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-6300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>11300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>213800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-4500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-16300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>12200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-6900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>150900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>40800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>600</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IGMS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IGMS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="92">
   <si>
     <t>IGMS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,92 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -795,8 +802,14 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +861,14 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +920,14 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,61 +947,69 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>38900</v>
+      </c>
+      <c r="E12" s="3">
+        <v>39200</v>
+      </c>
+      <c r="F12" s="3">
         <v>34200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>30100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>23600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>19600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>15800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>15000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>14600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>21000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>8300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>14200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>5900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>13000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>6000</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1061,14 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1120,14 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1179,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,61 +1203,69 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>50700</v>
+      </c>
+      <c r="F17" s="3">
         <v>44200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>38700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>31700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>24700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>20600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>19400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>18600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>26600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>10700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>17900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>7400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>15600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>7200</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,52 +1273,58 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-50700</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-44200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-38700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-31700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-24700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-20600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-19400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-18600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-26600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-10700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-17900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-7400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-15600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1344,10 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1291,49 +1358,55 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1341,52 +1414,58 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-49300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-43100</v>
+      </c>
+      <c r="G21" s="3">
         <v>-37300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-31000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-24300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-20000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-18600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-17400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-24600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-10000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-17900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-7400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-15400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,61 +1517,73 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-51900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-50600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-44200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-38700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-31600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-24600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-20300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-18800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-17600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-25000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-10200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-18100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-7500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-15600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1635,14 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1694,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-51900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-50600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-44200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-38700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-31600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-24600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-20300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-18800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-17600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-25000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-10200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-18100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-7500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-15600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-51900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-50600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-44200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-38700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-31600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-24600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-20300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-18800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-17600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-25000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-10200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-18100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-7500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-15600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1871,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1930,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1989,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +2048,14 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1927,102 +2066,114 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-51900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-50600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-44200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-38700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-31600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-24600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-20300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-18800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-17600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-25000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-10200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-18100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-7500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-15600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2225,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-51900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-50600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-44200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-38700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-31600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-24600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-20300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-18800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-17600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-25000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-10200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-18100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-7500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-15600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2375,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,47 +2398,49 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>75400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>133300</v>
+      </c>
+      <c r="F41" s="3">
         <v>165600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>246000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>252400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>241100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>27300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>31800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>48100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>35900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>193700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>42700</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2280,44 +2453,50 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>112000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>96200</v>
+      </c>
+      <c r="F42" s="3">
         <v>93900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>35400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>79300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>125200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>153000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>166300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>158700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>188700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>48400</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2333,22 +2512,28 @@
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -2368,11 +2553,11 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
@@ -2386,8 +2571,14 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,47 +2630,53 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>11200</v>
+      </c>
+      <c r="F45" s="3">
         <v>8900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>8700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>9500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>7000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>4400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>3100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>5700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>6400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>6000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1200</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2492,47 +2689,53 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>197800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>240700</v>
+      </c>
+      <c r="F46" s="3">
         <v>268400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>290200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>341200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>373300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>184700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>201200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>212500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>231100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>248100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>43900</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2545,44 +2748,50 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3">
         <v>6100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>20400</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
         <v>5000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>12200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>12000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>9300</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2598,47 +2807,53 @@
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>58900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>56300</v>
+      </c>
+      <c r="F48" s="3">
         <v>56800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>39300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>38400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>34800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>26600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>22600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>18200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>18000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>12500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2400</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2651,8 +2866,14 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2925,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2984,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,47 +3043,53 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E52" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F52" s="3">
         <v>900</v>
       </c>
       <c r="G52" s="3">
+        <v>800</v>
+      </c>
+      <c r="H52" s="3">
+        <v>900</v>
+      </c>
+      <c r="I52" s="3">
         <v>500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>500</v>
-      </c>
-      <c r="I52" s="3">
-        <v>300</v>
-      </c>
-      <c r="J52" s="3">
-        <v>300</v>
       </c>
       <c r="K52" s="3">
         <v>300</v>
       </c>
       <c r="L52" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M52" s="3">
+        <v>300</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
         <v>2200</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2863,8 +3102,14 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,47 +3161,53 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>257700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>298100</v>
+      </c>
+      <c r="F54" s="3">
         <v>332200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>350700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>380500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>408600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>211700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>229100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>243200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>261400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>269900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>48500</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2969,8 +3220,14 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3247,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,47 +3270,49 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F57" s="3">
         <v>3300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>4900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>5700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>7900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>3200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>4300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>3100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2100</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3064,8 +3325,14 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3097,14 +3364,14 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>300</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3117,47 +3384,53 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>22200</v>
+      </c>
+      <c r="F59" s="3">
         <v>17100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>14200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>9200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>9300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>10100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>6900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>5600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>5800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>3600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>4100</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3170,47 +3443,53 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>27800</v>
+      </c>
+      <c r="F60" s="3">
         <v>20500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>19100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>14800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>17200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>13300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>11200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>7500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>8900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>6400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>6500</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3223,8 +3502,14 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,47 +3561,53 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>25900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>25400</v>
+      </c>
+      <c r="F62" s="3">
         <v>26200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>9100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>10000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>9600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>10300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>10900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>11600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>12200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>8800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>200</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3329,8 +3620,14 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3679,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3738,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,47 +3797,53 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>53200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>53200</v>
+      </c>
+      <c r="F66" s="3">
         <v>46700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>28200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>24900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>26800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>23500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>22100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>19100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>21100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>15200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>6700</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3541,8 +3856,14 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3883,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3938,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3997,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3701,14 +4036,14 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
         <v>122800</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
       <c r="P70" s="3">
         <v>0</v>
       </c>
@@ -3721,8 +4056,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,47 +4115,53 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-405600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-353700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-303100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-258900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-220200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-188600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-163900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-143700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-124800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-107200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-92400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-82200</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3827,8 +4174,14 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4233,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4292,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,47 +4351,53 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>204500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>244900</v>
+      </c>
+      <c r="F76" s="3">
         <v>285600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>322500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>355600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>381800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>188200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>207000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>224000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>240200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>254600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-81000</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4039,8 +4410,14 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4469,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-51900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-50600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-44200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-38700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-31600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-24600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-20300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-18800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-17600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-25000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-10200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-18100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-7500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-15600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,34 +4619,36 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F83" s="3">
         <v>1100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>1400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>300</v>
-      </c>
-      <c r="H83" s="3">
-        <v>200</v>
-      </c>
-      <c r="I83" s="3">
-        <v>200</v>
       </c>
       <c r="J83" s="3">
         <v>200</v>
       </c>
       <c r="K83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L83" s="3">
         <v>200</v>
@@ -4260,25 +4657,31 @@
         <v>300</v>
       </c>
       <c r="N83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P83" s="3">
         <v>100</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
+      <c r="Q83" s="3">
+        <v>200</v>
+      </c>
+      <c r="R83" s="3">
+        <v>100</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4733,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4792,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4851,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4910,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4969,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-38900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="F89" s="3">
         <v>-34800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-26400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-28300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-22800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-15100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-13100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-16400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-27400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-15400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-17700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-8300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-12100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +5055,69 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F91" s="3">
         <v>-2200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-3200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-6100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-6700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-6600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-2500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-1700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-1200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-1100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-300</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5169,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5228,73 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F94" s="3">
         <v>-46700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>20100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>39600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>20700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>11500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-3000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>28500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-202100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-58400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-1100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-300</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5314,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5369,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5428,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5487,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5546,73 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F100" s="3">
         <v>1100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>215900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>222700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>224700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>59600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>10000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>13500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>8900</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5664,69 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-57900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-31600</v>
+      </c>
+      <c r="F102" s="3">
         <v>-80400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-6300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>11300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>213800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-4500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-16300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>12200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-6900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>150900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>40800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>1000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>600</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IGMS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IGMS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="92">
   <si>
     <t>IGMS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,119 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+      <c r="D8" s="3">
+        <v>400</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -808,8 +812,11 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -867,8 +874,11 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,67 +962,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>47200</v>
+      </c>
+      <c r="E12" s="3">
         <v>38900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>39200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>34200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>30100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>23600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>19600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>15800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>15000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>14600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>21000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>8300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>14200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>5900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>13000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>6000</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>59600</v>
+      </c>
+      <c r="E17" s="3">
         <v>52000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>50700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>44200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>38700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>31700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>24700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>20600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>19400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>18600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>26600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>17900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>15600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7200</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-50700</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-44200</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-38700</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-31700</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-24700</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="D18" s="3">
+        <v>-59200</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="3">
         <v>-20600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-19400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-18600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-26600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-10700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-17900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-15600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-7200</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,126 +1379,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="D20" s="3">
+        <v>600</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="3">
+        <v>300</v>
+      </c>
+      <c r="L20" s="3">
+        <v>600</v>
+      </c>
+      <c r="M20" s="3">
+        <v>900</v>
+      </c>
+      <c r="N20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O20" s="3">
+        <v>500</v>
+      </c>
+      <c r="P20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>100</v>
-      </c>
-      <c r="J20" s="3">
-        <v>300</v>
-      </c>
-      <c r="K20" s="3">
-        <v>600</v>
-      </c>
-      <c r="L20" s="3">
-        <v>900</v>
-      </c>
-      <c r="M20" s="3">
-        <v>1600</v>
-      </c>
-      <c r="N20" s="3">
-        <v>500</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-300</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
-        <v>100</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3">
-        <v>-49300</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-43100</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-37300</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-31000</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-24300</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="D21" s="3">
+        <v>-57200</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>-20000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-18600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-17400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-24600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-10000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-17900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-15400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-7000</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1523,67 +1563,73 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-58600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-51900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-50600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-44200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-38700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-31600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-24600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-20300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-18800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-17600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-25000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-10200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-18100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-15600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-7100</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-58600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-51900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-50600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-44200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-38700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-31600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-24600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-20300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-18800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-17600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-25000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-10200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-18100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-15600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-7100</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-58600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-51900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-50600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-44200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-38700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-31600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-24600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-20300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-18800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-17600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-25000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-10200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-18100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-15600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-7100</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="D32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P32" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>100</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-600</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-900</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-500</v>
-      </c>
-      <c r="O32" s="3">
-        <v>300</v>
-      </c>
-      <c r="P32" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-58600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-51900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-50600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-44200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-38700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-31600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-24600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-20300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-18800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-17600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-25000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-10200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-18100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-15600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-7100</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-58600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-51900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-50600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-44200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-38700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-31600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-24600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-20300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-18800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-17600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-25000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-10200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-18100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-15600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-7100</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,50 +2486,51 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>221300</v>
+      </c>
+      <c r="E41" s="3">
         <v>75400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>133300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>165600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>246000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>252400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>241100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>27300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>31800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>48100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>35900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>193700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>42700</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2459,47 +2546,50 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>291900</v>
+      </c>
+      <c r="E42" s="3">
         <v>112000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>96200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>93900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>35400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>79300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>125200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>153000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>166300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>158700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>188700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>48400</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2518,8 +2608,11 @@
       <c r="U42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2559,8 +2652,8 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
+      <c r="P43" s="3">
+        <v>0</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
@@ -2577,8 +2670,11 @@
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,50 +2732,53 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E45" s="3">
         <v>10300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>11200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>9500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1200</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2695,50 +2794,53 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>521800</v>
+      </c>
+      <c r="E46" s="3">
         <v>197800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>240700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>268400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>290200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>341200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>373300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>184700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>201200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>212500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>231100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>248100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>43900</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2754,8 +2856,11 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2765,36 +2870,36 @@
       <c r="E47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3">
         <v>6100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>20400</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J47" s="3">
-        <v>0</v>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
         <v>5000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>12200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>12000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>9300</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2813,50 +2918,53 @@
       <c r="U47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>59400</v>
+      </c>
+      <c r="E48" s="3">
         <v>58900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>56300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>56800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>39300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>38400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>34800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>26600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>22600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>18200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>18000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2400</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2872,8 +2980,11 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3061,22 +3181,22 @@
         <v>1000</v>
       </c>
       <c r="F52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G52" s="3">
         <v>900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>900</v>
-      </c>
-      <c r="I52" s="3">
-        <v>500</v>
       </c>
       <c r="J52" s="3">
         <v>500</v>
       </c>
       <c r="K52" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L52" s="3">
         <v>300</v>
@@ -3085,14 +3205,14 @@
         <v>300</v>
       </c>
       <c r="N52" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
         <v>2200</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,50 +3290,53 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>582200</v>
+      </c>
+      <c r="E54" s="3">
         <v>257700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>298100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>332200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>350700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>380500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>408600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>211700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>229100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>243200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>261400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>269900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>48500</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3226,8 +3352,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,50 +3402,51 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E57" s="3">
         <v>4000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>7900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2100</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3331,8 +3462,11 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3370,11 +3504,11 @@
         <v>0</v>
       </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>300</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3390,50 +3524,53 @@
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E59" s="3">
         <v>23400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>22200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>17100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>14200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>9200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>9300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>10100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4100</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3449,50 +3586,53 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>35800</v>
+      </c>
+      <c r="E60" s="3">
         <v>27400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>27800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>20500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>19100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>14800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>17200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>13300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6500</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3508,8 +3648,11 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3567,50 +3710,53 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>171000</v>
+      </c>
+      <c r="E62" s="3">
         <v>25900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>25400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>26200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>9100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>10000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>9600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>10300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>10900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>11600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>12200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>8800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>200</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,50 +3958,53 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>53200</v>
+        <v>206800</v>
       </c>
       <c r="E66" s="3">
         <v>53200</v>
       </c>
       <c r="F66" s="3">
+        <v>53200</v>
+      </c>
+      <c r="G66" s="3">
         <v>46700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>28200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>24900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>26800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>23500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>22100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>19100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>21100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>15200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6700</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3862,8 +4020,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4042,11 +4210,11 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
         <v>122800</v>
       </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
       <c r="Q70" s="3">
         <v>0</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,50 +4292,53 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-464200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-405600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-353700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-303100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-258900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-220200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-188600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-163900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-143700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-124800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-107200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-92400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-82200</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4180,8 +4354,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,50 +4540,53 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>375400</v>
+      </c>
+      <c r="E76" s="3">
         <v>204500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>244900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>285600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>322500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>355600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>381800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>188200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>207000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>224000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>240200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>254600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-81000</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4416,8 +4602,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-58600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-51900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-50600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-44200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-38700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-31600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-24600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-20300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-18800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-17600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-25000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-10200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-18100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-15600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-7100</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,31 +4819,32 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E83" s="3">
         <v>1200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>300</v>
-      </c>
-      <c r="J83" s="3">
-        <v>200</v>
       </c>
       <c r="K83" s="3">
         <v>200</v>
@@ -4654,34 +4853,37 @@
         <v>200</v>
       </c>
       <c r="M83" s="3">
+        <v>200</v>
+      </c>
+      <c r="N83" s="3">
         <v>300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>100</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>111300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-38900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-34900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-34800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-26400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-28300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-22800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-15100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-13100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-16400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-27400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-15400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-17700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-12100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-8000</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-6100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-6700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-6600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-300</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-184000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-19100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>1800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-46700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>20100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>39600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>20700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>11500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>28500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-202100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-58400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-300</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,67 +5795,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>218500</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>215900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>222700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>224700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>59600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>10000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>13500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>8900</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,63 +5919,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>145900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-57900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-31600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-80400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-6300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>11300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>213800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-4500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-16300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>12200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-6900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>150900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>40800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>600</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IGMS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IGMS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="92">
   <si>
     <t>IGMS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,105 +665,109 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>300</v>
+      </c>
+      <c r="E8" s="3">
         <v>400</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
       </c>
@@ -779,8 +783,8 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -815,8 +819,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -877,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,70 +976,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>48200</v>
+      </c>
+      <c r="E12" s="3">
         <v>47200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>38900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>39200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>34200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>30100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>23600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>19600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>15800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>15000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>14600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>21000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>8300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>14200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>5900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>13000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>6000</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,79 +1258,83 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>60800</v>
+      </c>
+      <c r="E17" s="3">
         <v>59600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>52000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>50700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>44200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>38700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>31700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>24700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>20600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>19400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>18600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>26600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>17900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>15600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7200</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-60500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-59200</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1320,44 +1350,47 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3">
         <v>-20600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-19400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-18600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-26600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-10700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-17900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-7400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-15600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-7200</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,17 +1413,18 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E20" s="3">
         <v>600</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1406,53 +1440,56 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-56500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-57200</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1468,44 +1505,47 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>-20000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-18600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-17400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-24600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-10000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-17900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-7400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-15400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-7000</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,70 +1606,76 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-58600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-51900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-50600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-44200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-38700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-31600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-24600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-20300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-18800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-17600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-25000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-10200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-18100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-7500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-15600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-7100</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-58600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-51900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-50600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-44200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-38700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-31600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-24600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-20300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-18800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-17600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-25000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-10200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-18100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-7500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-15600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-7100</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-58600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-51900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-50600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-44200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-38700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-31600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-24600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-20300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-18800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-17600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-25000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-10200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-18100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-7500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-15600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-7100</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,17 +2191,20 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-600</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2150,106 +2220,112 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-58600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-51900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-50600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-44200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-38700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-31600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-24600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-20300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-18800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-17600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-25000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-10200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-18100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-7500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-15600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-7100</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-58600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-51900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-50600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-44200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-38700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-31600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-24600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-20300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-18800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-17600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-25000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-10200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-18100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-7500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-15600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-7100</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,53 +2573,54 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>177400</v>
+      </c>
+      <c r="E41" s="3">
         <v>221300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>75400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>133300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>165600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>246000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>252400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>241100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>27300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>31800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>48100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>35900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>193700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>42700</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2549,50 +2636,53 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>291700</v>
+      </c>
+      <c r="E42" s="3">
         <v>291900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>112000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>96200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>93900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>35400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>79300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>125200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>153000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>166300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>158700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>188700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>48400</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2611,8 +2701,11 @@
       <c r="V42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2655,8 +2748,8 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
+      <c r="Q43" s="3">
+        <v>0</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>3</v>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,53 +2831,56 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E45" s="3">
         <v>8600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>10300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>11200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>9500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>6000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1200</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2797,53 +2896,56 @@
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>480000</v>
+      </c>
+      <c r="E46" s="3">
         <v>521800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>197800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>240700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>268400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>290200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>341200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>373300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>184700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>201200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>212500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>231100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>248100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>43900</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2859,8 +2961,11 @@
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2873,36 +2978,36 @@
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3">
         <v>6100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>20400</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
         <v>5000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>12200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>12000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>9300</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2921,53 +3026,56 @@
       <c r="V47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>58800</v>
+      </c>
+      <c r="E48" s="3">
         <v>59400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>58900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>56300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>56800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>39300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>38400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>34800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>26600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>22600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>18200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>18000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2400</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2983,8 +3091,11 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,13 +3286,16 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1000</v>
+        <v>2100</v>
       </c>
       <c r="E52" s="3">
         <v>1000</v>
@@ -3184,22 +3304,22 @@
         <v>1000</v>
       </c>
       <c r="G52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H52" s="3">
         <v>900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>900</v>
-      </c>
-      <c r="J52" s="3">
-        <v>500</v>
       </c>
       <c r="K52" s="3">
         <v>500</v>
       </c>
       <c r="L52" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M52" s="3">
         <v>300</v>
@@ -3208,14 +3328,14 @@
         <v>300</v>
       </c>
       <c r="O52" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
         <v>2200</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,53 +3416,56 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>540900</v>
+      </c>
+      <c r="E54" s="3">
         <v>582200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>257700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>298100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>332200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>350700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>380500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>408600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>211700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>229100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>243200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>261400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>269900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>48500</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3355,8 +3481,11 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,53 +3533,54 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E57" s="3">
         <v>3500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>7900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2100</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3465,8 +3596,11 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3507,11 +3641,11 @@
         <v>0</v>
       </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>300</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3527,53 +3661,56 @@
       <c r="V58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>41800</v>
+      </c>
+      <c r="E59" s="3">
         <v>32400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>23400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>22200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>17100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>14200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>9200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>9300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>10100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4100</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3589,53 +3726,56 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>44500</v>
+      </c>
+      <c r="E60" s="3">
         <v>35800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>27400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>27800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>20500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>19100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>14800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>17200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6500</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3651,8 +3791,11 @@
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3713,53 +3856,56 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>168300</v>
+      </c>
+      <c r="E62" s="3">
         <v>171000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>25900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>25400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>26200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>9100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>10000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>9600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>10300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>10900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>11600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>12200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>8800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>200</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,53 +4116,56 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>212800</v>
+      </c>
+      <c r="E66" s="3">
         <v>206800</v>
-      </c>
-      <c r="E66" s="3">
-        <v>53200</v>
       </c>
       <c r="F66" s="3">
         <v>53200</v>
       </c>
       <c r="G66" s="3">
+        <v>53200</v>
+      </c>
+      <c r="H66" s="3">
         <v>46700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>28200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>24900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>26800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>23500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>22100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>19100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>21100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>15200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6700</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4023,8 +4181,11 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4213,11 +4381,11 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
         <v>122800</v>
       </c>
-      <c r="Q70" s="3">
-        <v>0</v>
-      </c>
       <c r="R70" s="3">
         <v>0</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,53 +4466,56 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-522300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-464200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-405600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-353700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-303100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-258900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-220200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-188600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-163900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-143700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-124800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-107200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-92400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-82200</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4357,8 +4531,11 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,53 +4726,56 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>328200</v>
+      </c>
+      <c r="E76" s="3">
         <v>375400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>204500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>244900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>285600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>322500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>355600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>381800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>188200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>207000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>224000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>240200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>254600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-81000</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4605,8 +4791,11 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-58600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-51900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-50600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-44200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-38700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-31600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-24600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-20300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-18800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-17600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-25000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-10200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-18100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-7500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-15600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-7100</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,34 +5018,35 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E83" s="3">
         <v>1400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>300</v>
-      </c>
-      <c r="K83" s="3">
-        <v>200</v>
       </c>
       <c r="L83" s="3">
         <v>200</v>
@@ -4856,34 +5055,37 @@
         <v>200</v>
       </c>
       <c r="N83" s="3">
+        <v>200</v>
+      </c>
+      <c r="O83" s="3">
         <v>300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>100</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-40400</v>
+      </c>
+      <c r="E89" s="3">
         <v>111300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-38900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-34900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-34800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-26400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-28300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-22800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-15100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-13100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-16400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-27400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-15400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-17700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-8300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-12100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-8000</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-6100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-6700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-300</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-184000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-19100</v>
       </c>
-      <c r="F94" s="3">
-        <v>1800</v>
-      </c>
       <c r="G94" s="3">
-        <v>-46700</v>
+        <v>1600</v>
       </c>
       <c r="H94" s="3">
+        <v>-46400</v>
+      </c>
+      <c r="I94" s="3">
         <v>20100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>39600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>20700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>11500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>28500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-202100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-58400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-300</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,70 +6041,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>218500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>215900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-200</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>222700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>224700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>59600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>10000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>13500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>8900</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-43900</v>
+      </c>
+      <c r="E102" s="3">
         <v>145900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-57900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-31600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-80400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-6300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>11300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>213800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-16300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>12200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-6900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>150900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>40800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>600</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IGMS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IGMS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="92">
   <si>
     <t>IGMS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,114 +665,121 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E8" s="3">
         <v>400</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
+      <c r="F8" s="3">
+        <v>300</v>
+      </c>
+      <c r="G8" s="3">
+        <v>400</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -786,11 +793,11 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -822,8 +829,14 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -887,8 +900,14 @@
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +971,14 @@
       <c r="W10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,73 +1002,81 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>50900</v>
+      </c>
+      <c r="E12" s="3">
+        <v>45000</v>
+      </c>
+      <c r="F12" s="3">
         <v>48200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>47200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>38900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>39200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>34200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>30100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>23600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>19600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>15800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>15000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>14600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>21000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>8300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>14200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>5900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>13000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>6000</v>
       </c>
-      <c r="U12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1140,14 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,8 +1211,14 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1282,14 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,88 +1310,96 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>63900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>56600</v>
+      </c>
+      <c r="F17" s="3">
         <v>60800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>59600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>52000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>50700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>44200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>38700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>31700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>24700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>20600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>19400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>18600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>26600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>10700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>17900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>7400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>15600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>7200</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-63400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-56200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-60500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-59200</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1353,44 +1412,50 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3">
         <v>-20600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-19400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-18600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-26600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-10700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-17900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-7400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-15600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-7200</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,23 +1479,25 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F20" s="3">
         <v>2500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>600</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1443,59 +1510,65 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>1600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-57600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-50700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-56500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-57200</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1508,44 +1581,50 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
         <v>-20000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-18600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-17400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-24600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-17900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-7400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-15400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-7000</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,96 +1688,108 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-59200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-52600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-58000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-58600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-51900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-50600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-44200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-38700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-31600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-24600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-20300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-18800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-17600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-25000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-18100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-7500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-15600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-7100</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1739,8 +1830,14 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1901,156 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-59300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-52600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-58000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-58600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-51900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-50600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-44200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-38700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-31600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-24600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-20300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-18800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-17600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-25000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-18100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-7500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-15600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-7100</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-59300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-52600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-58000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-58600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-51900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-50600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-44200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-38700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-31600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-24600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-20300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-18800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-17600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-25000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-18100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-7500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-15600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-7100</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2114,14 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2185,14 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2256,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,23 +2327,29 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-600</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2223,109 +2362,121 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-1600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-59300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-52600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-58000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-58600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-51900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-50600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-44200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-38700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-31600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-24600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-20300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-18800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-17600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-25000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-18100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-7500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-15600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-7100</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2540,161 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-59300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-52600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-58000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-58600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-51900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-50600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-44200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-38700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-31600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-24600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-20300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-18800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-17600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-25000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-18100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-7500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-15600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-7100</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2718,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,59 +2745,61 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>140200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>121200</v>
+      </c>
+      <c r="F41" s="3">
         <v>177400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>221300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>75400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>133300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>165600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>246000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>252400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>241100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>27300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>31800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>48100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>35900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>193700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>42700</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2639,56 +2812,62 @@
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>233200</v>
+      </c>
+      <c r="E42" s="3">
+        <v>305900</v>
+      </c>
+      <c r="F42" s="3">
         <v>291700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>291900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>112000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>96200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>93900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>35400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>79300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>125200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>153000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>166300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>158700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>188700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>48400</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2704,8 +2883,14 @@
       <c r="W42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2751,11 +2936,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S43" s="3" t="s">
-        <v>3</v>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>3</v>
@@ -2769,8 +2954,14 @@
       <c r="W43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,59 +3025,65 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>11300</v>
+      </c>
+      <c r="F45" s="3">
         <v>10800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>8600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>10300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>11200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>8900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>8700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>9500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>7000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>4400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>3100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>5700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>6400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>6000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>1200</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2899,59 +3096,65 @@
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>384800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>438400</v>
+      </c>
+      <c r="F46" s="3">
         <v>480000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>521800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>197800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>240700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>268400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>290200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>341200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>373300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>184700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>201200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>212500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>231100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>248100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>43900</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2964,8 +3167,14 @@
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2981,39 +3190,39 @@
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3">
         <v>6100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>20400</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
         <v>5000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>12200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>12000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>9300</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3029,59 +3238,65 @@
       <c r="W47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>75800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>73100</v>
+      </c>
+      <c r="F48" s="3">
         <v>58800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>59400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>58900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>56300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>56800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>39300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>38400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>34800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>26600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>22600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>18200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>18000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>12500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>2400</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3094,8 +3309,14 @@
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3380,14 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3451,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,59 +3522,65 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F52" s="3">
         <v>2100</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1000</v>
       </c>
       <c r="G52" s="3">
         <v>1000</v>
       </c>
       <c r="H52" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="I52" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="J52" s="3">
         <v>900</v>
       </c>
       <c r="K52" s="3">
+        <v>800</v>
+      </c>
+      <c r="L52" s="3">
+        <v>900</v>
+      </c>
+      <c r="M52" s="3">
         <v>500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>500</v>
-      </c>
-      <c r="M52" s="3">
-        <v>300</v>
-      </c>
-      <c r="N52" s="3">
-        <v>300</v>
       </c>
       <c r="O52" s="3">
         <v>300</v>
       </c>
       <c r="P52" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Q52" s="3">
+        <v>300</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
         <v>2200</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3354,8 +3593,14 @@
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,59 +3664,65 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>462700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>513500</v>
+      </c>
+      <c r="F54" s="3">
         <v>540900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>582200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>257700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>298100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>332200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>350700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>380500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>408600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>211700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>229100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>243200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>261400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>269900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>48500</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3484,8 +3735,14 @@
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3766,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,59 +3793,61 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F57" s="3">
         <v>2700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>3500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>4000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>5600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>3300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>4900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>5700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>7900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>3200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>4300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>2000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>3100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>2800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>2100</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3599,8 +3860,14 @@
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3644,14 +3911,14 @@
         <v>0</v>
       </c>
       <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>300</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3664,59 +3931,65 @@
       <c r="W58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>39700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>42200</v>
+      </c>
+      <c r="F59" s="3">
         <v>41800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>32400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>23400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>22200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>17100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>14200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>9200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>9300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>10100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>6900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>5600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>5800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>3600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>4100</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3729,59 +4002,65 @@
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>43600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>44700</v>
+      </c>
+      <c r="F60" s="3">
         <v>44500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>35800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>27400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>27800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>20500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>19100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>14800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>17200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>13300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>11200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>7500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>8900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>6400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>6500</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3794,8 +4073,14 @@
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,59 +4144,65 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>179700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>181600</v>
+      </c>
+      <c r="F62" s="3">
         <v>168300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>171000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>25900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>25400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>26200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>9100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>10000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>9600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>10300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>10900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>11600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>12200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>8800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>200</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3924,8 +4215,14 @@
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4286,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4357,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,59 +4428,65 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>223300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>226200</v>
+      </c>
+      <c r="F66" s="3">
         <v>212800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>206800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>53200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>53200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>46700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>28200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>24900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>26800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>23500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>22100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>19100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>21100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>15200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>6700</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4184,8 +4499,14 @@
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4530,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4597,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4668,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4384,14 +4719,14 @@
         <v>0</v>
       </c>
       <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
         <v>122800</v>
       </c>
-      <c r="R70" s="3">
-        <v>0</v>
-      </c>
-      <c r="S70" s="3">
-        <v>0</v>
-      </c>
       <c r="T70" s="3">
         <v>0</v>
       </c>
@@ -4404,8 +4739,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,59 +4810,65 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-634100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-574800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-522300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-464200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-405600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-353700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-303100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-258900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-220200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-188600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-163900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-143700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-124800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-107200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-92400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-82200</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4534,8 +4881,14 @@
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4952,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +5023,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,59 +5094,65 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>239400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>287300</v>
+      </c>
+      <c r="F76" s="3">
         <v>328200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>375400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>204500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>244900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>285600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>322500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>355600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>381800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>188200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>207000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>224000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>240200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>254600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-81000</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4794,8 +5165,14 @@
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5236,161 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-59300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-52600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-58000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-58600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-51900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-50600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-44200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-38700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-31600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-24600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-20300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-18800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-17600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-25000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-18100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-7500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-15600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-7100</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,46 +5414,48 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F83" s="3">
         <v>1500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>1400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>1200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>1300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>1100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>1400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>300</v>
-      </c>
-      <c r="L83" s="3">
-        <v>200</v>
-      </c>
-      <c r="M83" s="3">
-        <v>200</v>
       </c>
       <c r="N83" s="3">
         <v>200</v>
       </c>
       <c r="O83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P83" s="3">
         <v>200</v>
@@ -5067,25 +5464,31 @@
         <v>300</v>
       </c>
       <c r="R83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T83" s="3">
         <v>100</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V83" s="3" t="s">
-        <v>3</v>
+      <c r="U83" s="3">
+        <v>200</v>
+      </c>
+      <c r="V83" s="3">
+        <v>100</v>
       </c>
       <c r="W83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5552,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5623,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5694,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5765,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5836,85 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-37900</v>
+      </c>
+      <c r="F89" s="3">
         <v>-40400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>111300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-38900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-34900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-34800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-26400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-28300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-22800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-15100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-13100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-16400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-27400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-15400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-17700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-8300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-12100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-8000</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5938,81 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2700</v>
       </c>
-      <c r="E91" s="3">
-        <v>-1800</v>
-      </c>
       <c r="F91" s="3">
-        <v>-3000</v>
+        <v>-2700</v>
       </c>
       <c r="G91" s="3">
         <v>-1800</v>
       </c>
       <c r="H91" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J91" s="3">
         <v>-2200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-3200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-6100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-6700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-6600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-2500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-1700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-1200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-1100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-300</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +6076,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +6147,85 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>69800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="F94" s="3">
         <v>-3700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-184000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-19100</v>
       </c>
-      <c r="G94" s="3">
-        <v>1600</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J94" s="3">
         <v>-46400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>20100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>39600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>20700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>11500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-3000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>28500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-202100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-58400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-1100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-300</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6249,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6316,14 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6387,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6458,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6529,85 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>500</v>
+      </c>
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>218500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>1500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>1100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>215900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-200</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>222700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>224700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>59600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>10000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>13500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>8900</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6671,81 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-56200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-43900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>145900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-57900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-31600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-80400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-6300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>11300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>213800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-4500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-16300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>12200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-6900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>150900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>40800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>1000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>600</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IGMS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IGMS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="92">
   <si>
     <t>IGMS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,125 +665,129 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Y7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>400</v>
+      </c>
+      <c r="E8" s="3">
         <v>500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>400</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
       </c>
@@ -799,8 +803,8 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
@@ -835,8 +839,11 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -906,8 +913,11 @@
       <c r="Y9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +987,11 @@
       <c r="Y10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,79 +1017,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>55700</v>
+      </c>
+      <c r="E12" s="3">
         <v>50900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>45000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>48200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>47200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>38900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>39200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>34200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>30100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>23600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>19600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>15800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>15000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>14600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>21000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>8300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>14200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>5900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>13000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>6000</v>
       </c>
-      <c r="W12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1217,8 +1237,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,97 +1338,101 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>68700</v>
+      </c>
+      <c r="E17" s="3">
         <v>63900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>56600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>60800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>59600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>52000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>50700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>44200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>38700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>31700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>24700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>20600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>19400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>18600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>26600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>10700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>17900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>15600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>7200</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-68300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-63400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-56200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-60500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-59200</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1418,44 +1448,47 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3">
         <v>-20600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-19400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-18600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-26600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-10700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-17900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-7400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-15600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-7200</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,26 +1514,27 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E20" s="3">
         <v>4200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>600</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1516,62 +1550,65 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>100</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-62100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-57600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-50700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-56500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-57200</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1587,44 +1624,47 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3">
         <v>-20000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-18600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-17400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-24600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-10000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-17900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-7400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-15400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-7000</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1694,87 +1734,93 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-64300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-59200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-52600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-58000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-58600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-51900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-50600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-44200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-38700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-31600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-24600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-20300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-18800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-17600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-25000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-10200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-18100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-7500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-15600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-7100</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
+      <c r="E24" s="3">
+        <v>100</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>3</v>
@@ -1791,8 +1837,8 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1836,8 +1882,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-64400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-59300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-52600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-58000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-58600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-51900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-50600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-44200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-38700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-31600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-24600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-20300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-18800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-17600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-25000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-10200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-18100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-7500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-15600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-7100</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-64400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-59300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-52600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-58000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-58600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-51900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-50600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-44200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-38700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-31600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-24600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-20300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-18800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-17600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-25000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-10200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-18100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-7500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-15600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-7100</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,26 +2400,29 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-4200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-600</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2368,115 +2438,121 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>100</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-64400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-59300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-52600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-58000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-58600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-51900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-50600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-44200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-38700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-31600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-24600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-20300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-18800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-17600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-25000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-10200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-18100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-7500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-15600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-7100</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-64400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-59300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-52600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-58000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-58600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-51900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-50600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-44200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-38700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-31600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-24600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-20300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-18800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-17600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-25000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-10200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-18100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-7500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-15600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-7100</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Y38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,62 +2833,63 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>150700</v>
+      </c>
+      <c r="E41" s="3">
         <v>140200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>121200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>177400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>221300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>75400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>133300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>165600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>246000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>252400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>241100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>27300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>31800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>48100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>35900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>193700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>42700</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2818,59 +2905,62 @@
       <c r="Y41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>236200</v>
+      </c>
+      <c r="E42" s="3">
         <v>233200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>305900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>291700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>291900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>112000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>96200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>93900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>35400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>79300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>125200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>153000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>166300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>158700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>188700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>48400</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2889,8 +2979,11 @@
       <c r="Y42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2942,8 +3035,8 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>3</v>
+      <c r="T43" s="3">
+        <v>0</v>
       </c>
       <c r="U43" s="3" t="s">
         <v>3</v>
@@ -2960,8 +3053,11 @@
       <c r="Y43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,62 +3127,65 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E45" s="3">
         <v>11400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>11300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>10800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>10300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>11200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>9500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>6400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>6000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1200</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3102,62 +3201,65 @@
       <c r="Y45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>401800</v>
+      </c>
+      <c r="E46" s="3">
         <v>384800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>438400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>480000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>521800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>197800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>240700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>268400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>290200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>341200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>373300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>184700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>201200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>212500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>231100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>248100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>43900</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3173,8 +3275,11 @@
       <c r="Y46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3196,36 +3301,36 @@
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K47" s="3">
         <v>6100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>20400</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
         <v>5000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>12200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>12000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>9300</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3244,62 +3349,65 @@
       <c r="Y47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>76800</v>
+      </c>
+      <c r="E48" s="3">
         <v>75800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>73100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>58800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>59400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>58900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>56300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>56800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>39300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>38400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>34800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>26600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>22600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>18200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>18000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>12500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2400</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3315,8 +3423,11 @@
       <c r="Y48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3386,8 +3497,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,22 +3645,25 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E52" s="3">
         <v>2200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2100</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1000</v>
       </c>
       <c r="H52" s="3">
         <v>1000</v>
@@ -3552,22 +3672,22 @@
         <v>1000</v>
       </c>
       <c r="J52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K52" s="3">
         <v>900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>900</v>
-      </c>
-      <c r="M52" s="3">
-        <v>500</v>
       </c>
       <c r="N52" s="3">
         <v>500</v>
       </c>
       <c r="O52" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="P52" s="3">
         <v>300</v>
@@ -3576,14 +3696,14 @@
         <v>300</v>
       </c>
       <c r="R52" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
         <v>2200</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3599,8 +3719,11 @@
       <c r="Y52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,62 +3793,65 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>480700</v>
+      </c>
+      <c r="E54" s="3">
         <v>462700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>513500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>540900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>582200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>257700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>298100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>332200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>350700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>380500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>408600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>211700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>229100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>243200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>261400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>269900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>48500</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3741,8 +3867,11 @@
       <c r="Y54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,62 +3925,63 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E57" s="3">
         <v>4000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2100</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3866,8 +3997,11 @@
       <c r="Y57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3917,11 +4051,11 @@
         <v>0</v>
       </c>
       <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
         <v>300</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3937,62 +4071,65 @@
       <c r="Y58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>39400</v>
+      </c>
+      <c r="E59" s="3">
         <v>39700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>42200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>41800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>32400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>23400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>22200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>17100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>9300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>10100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4100</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4008,62 +4145,65 @@
       <c r="Y59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>44300</v>
+      </c>
+      <c r="E60" s="3">
         <v>43600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>44700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>44500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>35800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>27400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>27800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>20500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>19100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>14800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>17200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>13300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>11200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6500</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4079,8 +4219,11 @@
       <c r="Y60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4150,62 +4293,65 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>177800</v>
+      </c>
+      <c r="E62" s="3">
         <v>179700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>181600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>168300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>171000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>25900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>25400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>26200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>9100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>10000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>9600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>10300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>10900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>11600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>12200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>8800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>200</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4221,8 +4367,11 @@
       <c r="Y62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,62 +4589,65 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>222100</v>
+      </c>
+      <c r="E66" s="3">
         <v>223300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>226200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>212800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>206800</v>
-      </c>
-      <c r="H66" s="3">
-        <v>53200</v>
       </c>
       <c r="I66" s="3">
         <v>53200</v>
       </c>
       <c r="J66" s="3">
+        <v>53200</v>
+      </c>
+      <c r="K66" s="3">
         <v>46700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>28200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>24900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>26800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>23500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>22100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>19100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>21100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>15200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6700</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4505,8 +4663,11 @@
       <c r="Y66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4725,11 +4893,11 @@
         <v>0</v>
       </c>
       <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
         <v>122800</v>
       </c>
-      <c r="T70" s="3">
-        <v>0</v>
-      </c>
       <c r="U70" s="3">
         <v>0</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,62 +4987,65 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-698600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-634100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-574800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-522300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-464200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-405600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-353700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-303100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-258900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-220200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-188600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-163900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-143700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-124800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-107200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-92400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-82200</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4887,8 +5061,11 @@
       <c r="Y72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,62 +5283,65 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>258600</v>
+      </c>
+      <c r="E76" s="3">
         <v>239400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>287300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>328200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>375400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>204500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>244900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>285600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>322500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>355600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>381800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>188200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>207000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>224000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>240200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>254600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-81000</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5171,8 +5357,11 @@
       <c r="Y76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Y80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-64400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-59300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-52600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-58000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-58600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-51900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-50600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-44200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-38700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-31600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-24600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-20300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-18800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-17600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-25000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-10200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-18100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-7500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-15600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-7100</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,43 +5614,44 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E83" s="3">
         <v>1700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>300</v>
-      </c>
-      <c r="N83" s="3">
-        <v>200</v>
       </c>
       <c r="O83" s="3">
         <v>200</v>
@@ -5461,34 +5660,37 @@
         <v>200</v>
       </c>
       <c r="Q83" s="3">
+        <v>200</v>
+      </c>
+      <c r="R83" s="3">
         <v>300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>100</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-53100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-51000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-37900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-40400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>111300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-38900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-34900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-34800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-26400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-28300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-22800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-15100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-13100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-16400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-27400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-15400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-17700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-8300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-12100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-8000</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6160,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5949,70 +6170,73 @@
         <v>-3900</v>
       </c>
       <c r="E91" s="3">
-        <v>-2700</v>
+        <v>-3900</v>
       </c>
       <c r="F91" s="3">
         <v>-2700</v>
       </c>
       <c r="G91" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="H91" s="3">
         <v>-1800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-300</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E94" s="3">
         <v>69800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-18800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-184000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-19100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>2200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-46400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>20100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>39600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>20700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>11500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>28500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-202100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-58400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-300</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,79 +6778,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>70000</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>218500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>215900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-200</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>222700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>224700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>59600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>10000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>13500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>8900</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,75 +6926,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E102" s="3">
         <v>18900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-56200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-43900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>145900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-57900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-31600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-80400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-6300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>11300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>213800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-4500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-16300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>12200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-6900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>150900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>40800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>600</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IGMS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IGMS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="92">
   <si>
     <t>IGMS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,132 +665,136 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Z7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>500</v>
+      </c>
+      <c r="E8" s="3">
         <v>400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>400</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
@@ -806,8 +810,8 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
@@ -842,8 +846,11 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -916,8 +923,11 @@
       <c r="Z9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,8 +1000,11 @@
       <c r="Z10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,82 +1031,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>54800</v>
+      </c>
+      <c r="E12" s="3">
         <v>55700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>50900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>45000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>48200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>47200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>38900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>39200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>34200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>30100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>23600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>19600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>15800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>15000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>14600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>21000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>8300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>14200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>5900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>13000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>6000</v>
       </c>
-      <c r="X12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1240,8 +1260,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,103 +1365,107 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>67300</v>
+      </c>
+      <c r="E17" s="3">
         <v>68700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>63900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>56600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>60800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>59600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>52000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>50700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>44200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>38700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>31700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>24700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>20600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>19400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>18600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>26600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>10700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>17900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>7400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>15600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>7200</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-66800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-68300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-63400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-56200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-60500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-59200</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1451,44 +1481,47 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3">
         <v>-20600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-19400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-18600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-26600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-10700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-17900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-7400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-15600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-7200</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,29 +1548,30 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E20" s="3">
         <v>3900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>4200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1553,65 +1587,68 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>100</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-59500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-62100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-57600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-50700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-56500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-57200</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1627,44 +1664,47 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3">
         <v>-20000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-18600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-17400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-24600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-10000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-17900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-7400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-15400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-7000</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1737,93 +1777,99 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-61700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-64300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-59200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-52600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-58000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-58600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-51900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-50600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-44200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-38700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-31600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-24600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-20300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-18800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-17600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-25000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-10200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-18100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-7500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-15600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-7100</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
+      <c r="F24" s="3">
+        <v>100</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
@@ -1840,8 +1886,8 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1885,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-62000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-64400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-59300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-52600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-58000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-58600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-51900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-50600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-44200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-38700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-31600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-24600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-20300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-18800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-17600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-25000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-10200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-18100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-7500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-15600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-7100</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-62000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-64400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-59300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-52600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-58000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-58600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-51900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-50600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-44200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-38700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-31600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-24600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-20300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-18800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-17600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-25000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-10200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-18100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-7500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-15600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-7100</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,29 +2470,32 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-4200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2441,118 +2511,124 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>100</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-100</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-62000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-64400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-59300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-52600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-58000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-58600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-51900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-50600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-44200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-38700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-31600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-24600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-20300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-18800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-17600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-25000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-10200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-18100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-7500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-15600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-7100</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-62000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-64400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-59300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-52600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-58000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-58600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-51900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-50600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-44200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-38700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-31600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-24600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-20300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-18800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-17600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-25000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-10200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-18100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-7500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-15600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-7100</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Z38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,65 +2920,66 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>174800</v>
+      </c>
+      <c r="E41" s="3">
         <v>150700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>140200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>121200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>177400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>221300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>75400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>133300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>165600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>246000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>252400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>241100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>27300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>31800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>48100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>35900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>193700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>42700</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2908,62 +2995,65 @@
       <c r="Z41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>212200</v>
+      </c>
+      <c r="E42" s="3">
         <v>236200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>233200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>305900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>291700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>291900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>112000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>96200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>93900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>35400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>79300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>125200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>153000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>166300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>158700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>188700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>48400</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2982,8 +3072,11 @@
       <c r="Z42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3038,8 +3131,8 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>3</v>
+      <c r="U43" s="3">
+        <v>0</v>
       </c>
       <c r="V43" s="3" t="s">
         <v>3</v>
@@ -3056,8 +3149,11 @@
       <c r="Z43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,65 +3226,68 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E45" s="3">
         <v>14900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>11400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>11300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>10800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>10300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>11200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>9500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>6400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>6000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1200</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3204,65 +3303,68 @@
       <c r="Z45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>398400</v>
+      </c>
+      <c r="E46" s="3">
         <v>401800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>384800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>438400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>480000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>521800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>197800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>240700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>268400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>290200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>341200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>373300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>184700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>201200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>212500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>231100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>248100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>43900</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3278,62 +3380,65 @@
       <c r="Z46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3">
         <v>6100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>20400</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
         <v>5000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>12200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>12000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>9300</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3352,65 +3457,68 @@
       <c r="Z47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>74000</v>
+      </c>
+      <c r="E48" s="3">
         <v>76800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>75800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>73100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>58800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>59400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>58900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>56300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>56800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>39300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>38400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>34800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>26600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>22600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>18200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>18000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>12500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2400</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3426,8 +3534,11 @@
       <c r="Z48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,25 +3765,28 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2100</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1000</v>
       </c>
       <c r="I52" s="3">
         <v>1000</v>
@@ -3675,22 +3795,22 @@
         <v>1000</v>
       </c>
       <c r="K52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L52" s="3">
         <v>900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>900</v>
-      </c>
-      <c r="N52" s="3">
-        <v>500</v>
       </c>
       <c r="O52" s="3">
         <v>500</v>
       </c>
       <c r="P52" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="Q52" s="3">
         <v>300</v>
@@ -3699,14 +3819,14 @@
         <v>300</v>
       </c>
       <c r="S52" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
         <v>2200</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,65 +3919,68 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>474400</v>
+      </c>
+      <c r="E54" s="3">
         <v>480700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>462700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>513500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>540900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>582200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>257700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>298100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>332200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>350700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>380500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>408600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>211700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>229100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>243200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>261400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>269900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>48500</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3870,8 +3996,11 @@
       <c r="Z54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,65 +4056,66 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E57" s="3">
         <v>4900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>7900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2100</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
@@ -4000,8 +4131,11 @@
       <c r="Z57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4054,11 +4188,11 @@
         <v>0</v>
       </c>
       <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
         <v>300</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V58" s="3" t="s">
         <v>3</v>
       </c>
@@ -4074,65 +4208,68 @@
       <c r="Z58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>39100</v>
+      </c>
+      <c r="E59" s="3">
         <v>39400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>39700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>42200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>41800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>32400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>23400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>22200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>17100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>9200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>9300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>10100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4100</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4148,65 +4285,68 @@
       <c r="Z59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E60" s="3">
         <v>44300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>43600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>44700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>44500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>35800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>27400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>27800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>20500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>19100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>14800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>17200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>13300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>11200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6500</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4222,8 +4362,11 @@
       <c r="Z60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4296,65 +4439,68 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>177500</v>
+      </c>
+      <c r="E62" s="3">
         <v>177800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>179700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>181600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>168300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>171000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>25900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>25400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>26200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>9100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>10000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>9600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>10300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>10900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>11600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>12200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>8800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>200</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,65 +4747,68 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>220500</v>
+      </c>
+      <c r="E66" s="3">
         <v>222100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>223300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>226200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>212800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>206800</v>
-      </c>
-      <c r="I66" s="3">
-        <v>53200</v>
       </c>
       <c r="J66" s="3">
         <v>53200</v>
       </c>
       <c r="K66" s="3">
+        <v>53200</v>
+      </c>
+      <c r="L66" s="3">
         <v>46700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>28200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>24900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>26800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>23500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>22100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>19100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>21100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>15200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6700</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4666,8 +4824,11 @@
       <c r="Z66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4896,11 +5064,11 @@
         <v>0</v>
       </c>
       <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
         <v>122800</v>
       </c>
-      <c r="U70" s="3">
-        <v>0</v>
-      </c>
       <c r="V70" s="3">
         <v>0</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,65 +5161,68 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-760500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-698600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-634100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-574800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-522300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-464200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-405600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-353700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-303100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-258900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-220200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-188600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-163900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-143700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-124800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-107200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-92400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-82200</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5064,8 +5238,11 @@
       <c r="Z72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,65 +5469,68 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>253900</v>
+      </c>
+      <c r="E76" s="3">
         <v>258600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>239400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>287300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>328200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>375400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>204500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>244900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>285600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>322500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>355600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>381800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>188200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>207000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>224000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>240200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>254600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-81000</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5360,8 +5546,11 @@
       <c r="Z76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Z80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-62000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-64400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-59300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-52600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-58000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-58600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-51900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-50600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-44200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-38700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-31600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-24600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-20300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-18800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-17600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-25000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-10200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-18100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-7500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-15600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-7100</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,46 +5813,47 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E83" s="3">
         <v>2200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>300</v>
-      </c>
-      <c r="O83" s="3">
-        <v>200</v>
       </c>
       <c r="P83" s="3">
         <v>200</v>
@@ -5663,34 +5862,37 @@
         <v>200</v>
       </c>
       <c r="R83" s="3">
+        <v>200</v>
+      </c>
+      <c r="S83" s="3">
         <v>300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>100</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-40100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-53100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-51000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-37900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-40400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>111300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-38900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-34900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-34800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-26400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-28300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-22800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-15100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-13100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-16400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-27400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-15400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-17700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-8300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-12100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-8000</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3900</v>
+        <v>-3100</v>
       </c>
       <c r="E91" s="3">
         <v>-3900</v>
       </c>
       <c r="F91" s="3">
-        <v>-2700</v>
+        <v>-3900</v>
       </c>
       <c r="G91" s="3">
         <v>-2700</v>
       </c>
       <c r="H91" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="I91" s="3">
         <v>-1800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-300</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>69800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-18800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-184000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-19100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>2200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-46400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>20100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>39600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>20700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>11500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>28500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-202100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-58400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-300</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,82 +7024,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>44600</v>
+      </c>
+      <c r="E100" s="3">
         <v>70000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>218500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>215900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-200</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>222700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>224700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>59600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>10000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>13500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>8900</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,78 +7178,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E102" s="3">
         <v>10500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>18900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-56200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-43900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>145900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-57900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-31600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-80400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-6300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>11300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>213800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-4500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-16300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>12200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-6900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>150900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>40800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>600</v>
       </c>
-      <c r="X102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
